--- a/Анализ паттернов сигналов.xlsx
+++ b/Анализ паттернов сигналов.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\HomeWork\RostelekomSound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\ReservCopy\WORK\HomeWork\RostelekomSound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAC5F2A4-4AC5-4B5D-A2B1-DE30CD8973FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA876C0-D03F-486A-BB1B-975681764F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{842F845D-E03F-4107-B919-18862816C8CD}"/>
+    <workbookView xWindow="6590" yWindow="4460" windowWidth="28800" windowHeight="15460" xr2:uid="{842F845D-E03F-4107-B919-18862816C8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -403,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DA152-0AFD-4A30-9E87-CCB4A7316D4F}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D21"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>860</v>
       </c>
@@ -482,7 +482,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>860</v>
       </c>
@@ -553,7 +553,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>860</v>
       </c>
@@ -624,7 +624,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>860</v>
       </c>
@@ -695,7 +695,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>950</v>
       </c>
@@ -766,7 +766,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>860</v>
       </c>
@@ -837,7 +837,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f>A1*256/9.6</f>
         <v>22933.333333333336</v>
@@ -931,7 +931,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" ref="A9:W9" si="1">A2*256/9.6</f>
         <v>22933.333333333336</v>
@@ -1025,7 +1025,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" ref="A10:W10" si="2">A3*256/9.6</f>
         <v>22933.333333333336</v>
@@ -1119,7 +1119,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" ref="A11:W11" si="3">A4*256/9.6</f>
         <v>22933.333333333336</v>
@@ -1213,7 +1213,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" ref="A12:W12" si="4">A5*256/9.6</f>
         <v>25333.333333333336</v>
@@ -1307,7 +1307,7 @@
         <v>25333.333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" ref="A13:W13" si="5">A6*256/9.6</f>
         <v>22933.333333333336</v>
@@ -1401,7 +1401,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <f>IF(A1&lt;1500,0,1)</f>
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <f t="shared" ref="A17:W17" si="7">IF(A2&lt;1500,0,1)</f>
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <f t="shared" ref="A18:W18" si="8">IF(A3&lt;1500,0,1)</f>
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <f t="shared" ref="A19:W19" si="9">IF(A4&lt;1500,0,1)</f>
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <f t="shared" ref="A20:W20" si="10">IF(A5&lt;1500,0,1)</f>
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <f t="shared" ref="A21:W21" si="11">IF(A6&lt;1500,0,1)</f>
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2190,10 +2190,36 @@
       </c>
       <c r="H28">
         <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Анализ паттернов сигналов.xlsx
+++ b/Анализ паттернов сигналов.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\ReservCopy\WORK\HomeWork\RostelekomSound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\HomeWork\RostelekomSound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA876C0-D03F-486A-BB1B-975681764F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305A09ED-1A6B-4D81-9C6A-1D170B318DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6590" yWindow="4460" windowWidth="28800" windowHeight="15460" xr2:uid="{842F845D-E03F-4107-B919-18862816C8CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{842F845D-E03F-4107-B919-18862816C8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,31 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>Громкость вверх 1</t>
+  </si>
+  <si>
+    <t>Громкость вверх 2</t>
+  </si>
+  <si>
+    <t>Громкость вниз 1</t>
+  </si>
+  <si>
+    <t>Громкость вниз 2</t>
+  </si>
+  <si>
+    <t>Mute 1</t>
+  </si>
+  <si>
+    <t>Mute 2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DA152-0AFD-4A30-9E87-CCB4A7316D4F}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>860</v>
       </c>
@@ -482,7 +499,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>860</v>
       </c>
@@ -553,7 +570,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>860</v>
       </c>
@@ -624,7 +641,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>860</v>
       </c>
@@ -695,7 +712,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>950</v>
       </c>
@@ -766,7 +783,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>860</v>
       </c>
@@ -837,7 +854,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>A1*256/9.6</f>
         <v>22933.333333333336</v>
@@ -931,7 +948,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ref="A9:W9" si="1">A2*256/9.6</f>
         <v>22933.333333333336</v>
@@ -1025,7 +1042,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ref="A10:W10" si="2">A3*256/9.6</f>
         <v>22933.333333333336</v>
@@ -1119,7 +1136,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ref="A11:W11" si="3">A4*256/9.6</f>
         <v>22933.333333333336</v>
@@ -1213,7 +1230,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ref="A12:W12" si="4">A5*256/9.6</f>
         <v>25333.333333333336</v>
@@ -1307,7 +1324,7 @@
         <v>25333.333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" ref="A13:W13" si="5">A6*256/9.6</f>
         <v>22933.333333333336</v>
@@ -1401,10 +1418,7 @@
         <v>22933.333333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -1471,589 +1485,610 @@
       <c r="W15" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="X15" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
         <f>IF(A1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
-      <c r="B16" s="3">
-        <f t="shared" ref="B16:W16" si="6">IF(B1&lt;1500,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="6"/>
+      <c r="C16" s="3">
+        <f>IF(B1&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>IF(C1&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <f>IF(D1&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>IF(E1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(F1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(G1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(H1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(I1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(J1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(K1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(L1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(M1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(N1&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <f>IF(O1&lt;1500,0,1)</f>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="6"/>
+        <f>IF(P1&lt;1500,0,1)</f>
         <v>1</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF(Q1&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f>IF(R1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="6"/>
+        <f>IF(S1&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <f>IF(T1&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="V16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <f t="shared" ref="A17:W17" si="7">IF(A2&lt;1500,0,1)</f>
-        <v>0</v>
+        <f>IF(U1&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f>IF(V1&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <f>IF(W1&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(A2&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <f>IF(B2&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>IF(C2&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f>IF(D2&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>IF(E2&lt;1500,0,1)</f>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(F2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(G2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(H2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(I2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(J2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(K2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(L2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(M2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>IF(N2&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <f>IF(O2&lt;1500,0,1)</f>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
+        <f>IF(P2&lt;1500,0,1)</f>
         <v>1</v>
       </c>
       <c r="R17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF(Q2&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f>IF(R2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="7"/>
+        <f>IF(S2&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <f>IF(T2&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="V17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <f t="shared" ref="A18:W18" si="8">IF(A3&lt;1500,0,1)</f>
-        <v>0</v>
+        <f>IF(U2&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>IF(V2&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <f>IF(W2&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(A3&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <f>IF(B3&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>IF(C3&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <f>IF(D3&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>IF(E3&lt;1500,0,1)</f>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(F3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(G3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(H3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(I3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(J3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(K3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(L3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(M3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>IF(N3&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <f>IF(O3&lt;1500,0,1)</f>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="8"/>
+        <f>IF(P3&lt;1500,0,1)</f>
         <v>1</v>
       </c>
       <c r="R18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF(Q3&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f>IF(R3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="8"/>
+        <f>IF(S3&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <f>IF(T3&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="V18">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <f t="shared" ref="A19:W19" si="9">IF(A4&lt;1500,0,1)</f>
-        <v>0</v>
+        <f>IF(U3&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f>IF(V3&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="3">
+        <f>IF(W3&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(A4&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <f>IF(B4&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>IF(C4&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <f>IF(D4&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>IF(E4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(F4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(G4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(H4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(I4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(J4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(K4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(L4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(M4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>IF(N4&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <f>IF(O4&lt;1500,0,1)</f>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="9"/>
+        <f>IF(P4&lt;1500,0,1)</f>
         <v>1</v>
       </c>
       <c r="R19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF(Q4&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f>IF(R4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="9"/>
+        <f>IF(S4&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <f>IF(T4&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="V19">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <f t="shared" ref="A20:W20" si="10">IF(A5&lt;1500,0,1)</f>
-        <v>0</v>
+        <f>IF(U4&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f>IF(V4&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="3">
+        <f>IF(W4&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>IF(A5&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <f>IF(B5&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>IF(C5&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <f>IF(D5&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>IF(E5&lt;1500,0,1)</f>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(F5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(G5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(H5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(I5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(J5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(K5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(L5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="10"/>
+        <f>IF(M5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="10"/>
+        <f>IF(N5&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f>IF(O5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="10"/>
+        <f>IF(P5&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>IF(Q5&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>IF(R5&lt;1500,0,1)</f>
+        <v>1</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>IF(S5&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <f>IF(T5&lt;1500,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V20">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <f t="shared" ref="A21:W21" si="11">IF(A6&lt;1500,0,1)</f>
-        <v>0</v>
+        <f>IF(U5&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f>IF(V5&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <f>IF(W5&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(A6&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <f>IF(B6&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>IF(C6&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <f>IF(D6&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>IF(E6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(F6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(G6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(H6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(I6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(J6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(K6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(L6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF(M6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="11"/>
+        <f>IF(N6&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <f>IF(O6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="11"/>
+        <f>IF(P6&lt;1500,0,1)</f>
         <v>0</v>
       </c>
       <c r="R21">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF(Q6&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>IF(R6&lt;1500,0,1)</f>
+        <v>1</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IF(S6&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <f>IF(T6&lt;1500,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V21">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="W21" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1</v>
+        <f>IF(U6&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <f>IF(V6&lt;1500,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X21" s="3">
+        <f>IF(W6&lt;1500,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2061,16 +2096,19 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>0</v>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2079,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2087,16 +2125,19 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>0</v>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2105,59 +2146,65 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2165,13 +2212,16 @@
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1</v>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2183,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2191,30 +2241,33 @@
       <c r="H28">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>0</v>
-      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
         <v>2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>3</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>4</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>5</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>6</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>7</v>
       </c>
     </row>
